--- a/excel/vgl05sp.xlsx
+++ b/excel/vgl05sp.xlsx
@@ -440,22 +440,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2194.059307834066</v>
+        <v>1523.606184441425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.760977779721719</v>
+        <v>16.43045206305613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-5.698136651894345</v>
+        <v>6.584285297236655</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3510.507020892313</v>
+        <v>-112.9503636411628</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.198391814012217</v>
+        <v>7.755564327105094</v>
       </c>
     </row>
     <row r="9">
@@ -485,12 +485,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>393.8657209530397</v>
+        <v>115.2653455337026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.462841217873423</v>
+        <v>42.15961145650348</v>
       </c>
     </row>
     <row r="13">
@@ -505,17 +505,17 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-13.95327844261705</v>
+        <v>17.31060997585735</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.52669187271028</v>
+        <v>10.62410253797789</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110.2026613157725</v>
+        <v>134.5002964860849</v>
       </c>
     </row>
     <row r="18">
@@ -525,22 +525,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.627725227625543</v>
+        <v>8.845956186812829</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13.66230512773607</v>
+        <v>5.50187660928426</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.949583215827469</v>
+        <v>34.83042811966107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>203.3736889417343</v>
+        <v>83.6327189017691</v>
       </c>
     </row>
     <row r="23">
@@ -550,7 +550,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20.31319982264524</v>
+        <v>28.08014574222108</v>
       </c>
     </row>
     <row r="25">
@@ -560,32 +560,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1174.280291715418</v>
+        <v>889.2429137409927</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.16119220567887</v>
+        <v>27.30873459547302</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-5.367154735686847</v>
+        <v>7.572428556640125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>95.1632553249122</v>
+        <v>26.49439010244424</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-167.7550428268101</v>
+        <v>-34.51419953388165</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>314.9289829170649</v>
+        <v>313.0213815094506</v>
       </c>
     </row>
     <row r="32">
@@ -595,37 +595,37 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>212.9347956068755</v>
+        <v>183.0657493611542</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-37.4748038488929</v>
+        <v>-4.679452373259576</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-34414.43584197124</v>
+        <v>-15392.61364552435</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67.63375923859519</v>
+        <v>25.05948841834167</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.485856499740802</v>
+        <v>4.792573198594943</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-10.60645501658901</v>
+        <v>5.741141105544907</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-22.220494277128</v>
+        <v>6.226565219880353</v>
       </c>
     </row>
     <row r="40">
@@ -635,47 +635,47 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10.68478279513151</v>
+        <v>21.19414107238912</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-15.43055637544648</v>
+        <v>19.9668995722194</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-64.6342132899628</v>
+        <v>31.23061024699901</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-15.48461968100408</v>
+        <v>5.397369715662091</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>15.48509530714234</v>
+        <v>8.389710525984899</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.8210989317568723</v>
+        <v>5.805032742626874</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.679326735125653</v>
+        <v>2.907454157518854</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>74.17674052569215</v>
+        <v>20.40555292877247</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.245069645545867</v>
+        <v>10.33031488801497</v>
       </c>
     </row>
     <row r="50">
@@ -685,7 +685,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8.87643476660925</v>
+        <v>5.693258895945243</v>
       </c>
     </row>
   </sheetData>
